--- a/csec/database/Integrated Science data.xlsx
+++ b/csec/database/Integrated Science data.xlsx
@@ -11,12 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CSEC Inti Sci June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1074BjbLvhCsmarLe03oA98SiertzdkOd</t>
+  </si>
+  <si>
+    <t>CSEC Inti Sci June 2017 P2.pdf</t>
+  </si>
+  <si>
+    <t>1nJtqRR9x7jbPGgNFhpfhJvppEwWV-RoY</t>
   </si>
   <si>
     <t>CSEC Inti Sci June 2016 P2.pdf</t>
@@ -379,6 +391,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
